--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12240"/>
+    <workbookView windowWidth="28060" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>e-code</t>
   </si>
@@ -36,16 +36,22 @@
   <si>
     <t>A2PA2MYAA8RW2F</t>
   </si>
+  <si>
+    <t>AQDT-D7HBNV-YKBG</t>
+  </si>
+  <si>
+    <t>A2KCTHCZ01W2RI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,30 +92,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -119,39 +101,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,6 +130,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -170,6 +191,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -180,29 +209,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,13 +229,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,163 +385,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +430,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,7 +439,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,21 +501,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -493,162 +514,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,11 +664,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,15 +996,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="22.7678571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5892857142857" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.14285714285714" style="1"/>
     <col min="5" max="5" width="10.0714285714286" style="1"/>
@@ -1044,12 +1053,23 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <f>C:C</f>
-        <v>25</v>
+        <f>SUM(C:C)</f>
+        <v>50</v>
       </c>
       <c r="M2" s="1">
         <f>K:K</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12340"/>
+    <workbookView windowWidth="28060" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>e-code</t>
   </si>
@@ -42,15 +42,21 @@
   <si>
     <t>A2KCTHCZ01W2RI</t>
   </si>
+  <si>
+    <t>TLMC-D57X6P-2HBL</t>
+  </si>
+  <si>
+    <t>A3BCQAF1K1B3R1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -71,21 +77,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,16 +154,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,93 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,25 +235,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,31 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,115 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,48 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,12 +453,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -514,153 +491,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5892857142857" style="1" customWidth="1"/>
@@ -1054,7 +1060,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1">
         <f>K:K</f>
@@ -1062,13 +1068,24 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>25</v>
       </c>
     </row>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12160"/>
+    <workbookView windowWidth="22380" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>e-code</t>
   </si>
@@ -48,16 +48,19 @@
   <si>
     <t>A3BCQAF1K1B3R1</t>
   </si>
+  <si>
+    <t>DY9C-XQG25L-XDBX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,15 +80,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,16 +102,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,31 +134,68 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,28 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,37 +218,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,60 +423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,11 +443,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,173 +523,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -686,54 +686,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1000,26 +1000,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5892857142857" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.14285714285714" style="1"/>
-    <col min="5" max="5" width="10.0714285714286" style="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1"/>
-    <col min="7" max="7" width="2.08035714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.22321428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7232142857143" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.2142857142857" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5916666666667" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.14166666666667" style="1"/>
+    <col min="5" max="5" width="10.075" style="1"/>
+    <col min="6" max="6" width="9.14166666666667" style="1"/>
+    <col min="7" max="7" width="2.08333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.225" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.725" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.2166666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1">
         <f>K:K</f>
@@ -1079,13 +1079,21 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
         <v>25</v>
       </c>
     </row>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22380" windowHeight="8675"/>
+    <workbookView windowWidth="30240" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>e-code</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>DY9C-XQG25L-XDBX</t>
+  </si>
+  <si>
+    <t>96VL-W6LNED-T9BA</t>
+  </si>
+  <si>
+    <t>A2NJ-CD6PXA-Y8BD</t>
+  </si>
+  <si>
+    <t>FXJ5-9VFL5G-EUBZ</t>
   </si>
 </sst>
 </file>
@@ -57,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -80,47 +89,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,16 +127,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,39 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +173,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -217,7 +211,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,49 +241,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,121 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,17 +435,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,21 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,11 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,148 +537,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,54 +695,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1002,24 +1011,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5916666666667" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.14166666666667" style="1"/>
-    <col min="5" max="5" width="10.075" style="1"/>
-    <col min="6" max="6" width="9.14166666666667" style="1"/>
-    <col min="7" max="7" width="2.08333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.225" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.725" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.2166666666667" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5892857142857" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="10.0714285714286" style="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="2.08035714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.22321428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.2142857142857" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1060,7 +1069,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M2" s="1">
         <f>K:K</f>
@@ -1095,6 +1104,30 @@
       </c>
       <c r="C5" s="1">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13280"/>
+    <workbookView windowWidth="30240" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>e-code</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>FXJ5-9VFL5G-EUBZ</t>
+  </si>
+  <si>
+    <t>F8F5-GJ8QXF-BPBV</t>
   </si>
 </sst>
 </file>
@@ -67,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,19 +92,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -109,9 +121,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,30 +162,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,60 +222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,49 +250,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,8 +441,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,15 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,22 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +516,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,148 +540,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5892857142857" style="1" customWidth="1"/>
@@ -1069,7 +1072,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="M2" s="1">
         <f>K:K</f>
@@ -1128,6 +1131,14 @@
       </c>
       <c r="C8" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13320"/>
+    <workbookView windowWidth="30240" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>e-code</t>
   </si>
   <si>
-    <t>gcid</t>
-  </si>
-  <si>
     <t>金额</t>
   </si>
   <si>
@@ -34,21 +31,18 @@
     <t>EUJ7-AQSRM2-STB3</t>
   </si>
   <si>
-    <t>A2PA2MYAA8RW2F</t>
+    <t>已出售</t>
   </si>
   <si>
     <t>AQDT-D7HBNV-YKBG</t>
   </si>
   <si>
-    <t>A2KCTHCZ01W2RI</t>
+    <t>待售出</t>
   </si>
   <si>
     <t>TLMC-D57X6P-2HBL</t>
   </si>
   <si>
-    <t>A3BCQAF1K1B3R1</t>
-  </si>
-  <si>
     <t>DY9C-XQG25L-XDBX</t>
   </si>
   <si>
@@ -62,6 +56,57 @@
   </si>
   <si>
     <t>F8F5-GJ8QXF-BPBV</t>
+  </si>
+  <si>
+    <t>VCZ5-LA785G-9CBA</t>
+  </si>
+  <si>
+    <t>7H8G-9DRXKY-LFBD</t>
+  </si>
+  <si>
+    <t>2DYV-4GJ62W-9YBK</t>
+  </si>
+  <si>
+    <t>MVN7-6VPR86-FUBY</t>
+  </si>
+  <si>
+    <t>GB7V-4NYXRT-CJBF</t>
+  </si>
+  <si>
+    <t>Y6HV-56Y8UV-2BBN</t>
+  </si>
+  <si>
+    <t>KYDM-J28W6C-CFBJ</t>
+  </si>
+  <si>
+    <t>ZK22-DYENEC-5JBE</t>
+  </si>
+  <si>
+    <t>LC6V-D424YV-V5BR</t>
+  </si>
+  <si>
+    <t>AUPS-REUC9E-P2BE</t>
+  </si>
+  <si>
+    <t>7YDP-W5FSGZ-YXBZ</t>
+  </si>
+  <si>
+    <t>9FGP-H538BP-62BH</t>
+  </si>
+  <si>
+    <t>QBAL-PVTDS3-4JBP</t>
+  </si>
+  <si>
+    <t>G7JZ-3FUJ57-CDBQ</t>
+  </si>
+  <si>
+    <t>LXCB-A9HN8L-99BU</t>
+  </si>
+  <si>
+    <t>RR25-HPFTQL-77BT</t>
+  </si>
+  <si>
+    <t>8L4W-QNY67L-WXB4</t>
   </si>
 </sst>
 </file>
@@ -69,9 +114,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -92,7 +137,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,31 +173,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,62 +249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,20 +279,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,181 +295,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +480,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,6 +525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,21 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -526,162 +580,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,131 +1059,256 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5892857142857" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.14285714285714" style="1"/>
-    <col min="5" max="5" width="10.0714285714286" style="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1"/>
-    <col min="7" max="7" width="2.08035714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.22321428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7232142857143" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.2142857142857" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.0714285714286" style="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1">
-        <f>SUM(C:C)</f>
-        <v>150</v>
-      </c>
-      <c r="M2" s="1">
-        <f>K:K</f>
+      <c r="D2" s="1">
+        <f>SUM(B:B)</f>
+        <v>525</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I:I</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
         <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>e-code</t>
   </si>
@@ -43,6 +43,9 @@
     <t>TLMC-D57X6P-2HBL</t>
   </si>
   <si>
+    <t>待出售</t>
+  </si>
+  <si>
     <t>DY9C-XQG25L-XDBX</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>8L4W-QNY67L-WXB4</t>
+  </si>
+  <si>
+    <t>7H22-EPWKPE-X6BH</t>
   </si>
 </sst>
 </file>
@@ -114,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -137,12 +143,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -151,17 +256,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,108 +272,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -289,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,44 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,21 +520,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -570,6 +534,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -580,153 +577,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1109,7 +1115,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1127,17 +1133,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
@@ -1145,7 +1154,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -1153,7 +1162,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -1161,7 +1170,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -1169,7 +1178,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>25</v>
@@ -1177,7 +1186,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>25</v>
@@ -1185,7 +1194,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
@@ -1193,7 +1202,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>25</v>
@@ -1201,7 +1210,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>25</v>
@@ -1209,7 +1218,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>25</v>
@@ -1217,7 +1226,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
@@ -1225,7 +1234,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>25</v>
@@ -1233,7 +1242,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>25</v>
@@ -1241,7 +1250,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
@@ -1249,7 +1258,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>25</v>
@@ -1257,7 +1266,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
@@ -1265,7 +1274,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>25</v>
@@ -1273,7 +1282,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>25</v>
@@ -1281,7 +1290,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
         <v>15</v>
@@ -1289,7 +1298,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -1297,7 +1306,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1">
         <v>10</v>
@@ -1305,10 +1314,18 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13160"/>
+    <workbookView windowWidth="25200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>e-code</t>
   </si>
@@ -34,13 +34,7 @@
     <t>待出售</t>
   </si>
   <si>
-    <t>WGNX-9Y4JZ9-72BR</t>
-  </si>
-  <si>
     <t>LEM5-CFLMCY-GSBZ</t>
-  </si>
-  <si>
-    <t>NSAW-HM5T7Z-CJBD</t>
   </si>
   <si>
     <t>95Y8-JAW54U-QUBS</t>
@@ -54,16 +48,19 @@
   <si>
     <t>6P87-353N7A-K2BN</t>
   </si>
+  <si>
+    <t>BYEN-K2SE5Z-JHB8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -87,19 +84,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -108,8 +119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +129,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -131,32 +174,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,67 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +465,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,26 +508,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,152 +532,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -696,54 +696,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1012,22 +1012,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="10.0714285714286" style="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="1"/>
-    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14166666666667" style="1"/>
+    <col min="4" max="4" width="10.075" style="1"/>
+    <col min="5" max="5" width="9.14166666666667" style="1"/>
+    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1062,27 +1062,19 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
@@ -1091,46 +1083,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="18" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="18" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" ht="18" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="18" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>25</v>
       </c>
     </row>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370"/>
+    <workbookView windowWidth="30240" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>e-code</t>
   </si>
@@ -34,22 +34,10 @@
     <t>待出售</t>
   </si>
   <si>
-    <t>LEM5-CFLMCY-GSBZ</t>
-  </si>
-  <si>
-    <t>95Y8-JAW54U-QUBS</t>
-  </si>
-  <si>
     <t>E9NR-Y3JE84-JRBA</t>
   </si>
   <si>
-    <t>M47X-VCWSYZ-S3B8</t>
-  </si>
-  <si>
     <t>6P87-353N7A-K2BN</t>
-  </si>
-  <si>
-    <t>BYEN-K2SE5Z-JHB8</t>
   </si>
 </sst>
 </file>
@@ -57,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -84,6 +72,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,7 +86,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,31 +131,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,7 +140,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,19 +184,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,59 +214,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,25 +224,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +418,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,7 +446,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,7 +455,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,11 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,152 +520,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,9 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -696,54 +681,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1015,19 +1000,19 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14166666666667" style="1"/>
-    <col min="4" max="4" width="10.075" style="1"/>
-    <col min="5" max="5" width="9.14166666666667" style="1"/>
-    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.0714285714286" style="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1062,7 +1047,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1072,56 +1057,39 @@
     <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>25</v>
-      </c>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3"/>
     </row>
-    <row r="9" ht="18" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>25</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" ht="18" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>25</v>
-      </c>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13160"/>
+    <workbookView windowWidth="25200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>e-code</t>
   </si>
@@ -39,16 +39,27 @@
   <si>
     <t>6P87-353N7A-K2BN</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1E1E1E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GTDA-B446S8-49B5</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -72,13 +83,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -86,6 +90,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,16 +134,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,74 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -214,6 +172,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,11 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,7 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,7 +472,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,152 +531,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -681,54 +695,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -997,22 +1011,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="10.0714285714286" style="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="1"/>
-    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14166666666667" style="1"/>
+    <col min="4" max="4" width="10.075" style="1"/>
+    <col min="5" max="5" width="9.14166666666667" style="1"/>
+    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1047,7 +1061,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1060,10 +1074,10 @@
     <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="18" spans="1:1">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="18" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1074,10 +1088,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" ht="18" spans="1:1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="18" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1102,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" ht="18" spans="1:1">
       <c r="A10" s="3"/>
+    </row>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>e-code</t>
   </si>
@@ -50,14 +50,36 @@
       <t>GTDA-B446S8-49B5</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1E1E1E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PNVT-NYBP6W-TRBE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1E1E1E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BMTX-RJV9BU-4RBX</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -531,16 +553,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1061,7 +1083,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1106,10 +1128,26 @@
       <c r="A10" s="3"/>
     </row>
     <row r="15" ht="18" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
         <v>25</v>
       </c>
     </row>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370"/>
+    <workbookView windowWidth="30240" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>e-code</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>待出售</t>
-  </si>
-  <si>
-    <t>E9NR-Y3JE84-JRBA</t>
-  </si>
-  <si>
-    <t>6P87-353N7A-K2BN</t>
   </si>
   <si>
     <r>
@@ -78,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,60 +98,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,19 +129,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,54 +153,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +251,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,175 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +442,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,24 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,21 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -537,168 +542,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,9 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -717,54 +708,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1036,19 +1027,19 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14166666666667" style="1"/>
-    <col min="4" max="4" width="10.075" style="1"/>
-    <col min="5" max="5" width="9.14166666666667" style="1"/>
-    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.0714285714286" style="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1083,7 +1074,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1096,59 +1087,52 @@
     <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="6" ht="18" spans="1:1">
+    <row r="6" spans="1:1">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" ht="18" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
     </row>
-    <row r="8" ht="18" spans="1:1">
+    <row r="8" spans="1:1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" ht="18" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
     </row>
-    <row r="10" ht="18" spans="1:1">
+    <row r="10" spans="1:1">
       <c r="A10" s="3"/>
     </row>
-    <row r="15" ht="18" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" ht="18" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>25</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" ht="18" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>e-code</t>
   </si>
@@ -32,17 +32,6 @@
   </si>
   <si>
     <t>待出售</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1E1E1E"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>GTDA-B446S8-49B5</t>
-    </r>
   </si>
   <si>
     <r>
@@ -72,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -98,11 +87,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,8 +169,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,114 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +240,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,96 +396,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,54 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,8 +437,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,17 +447,30 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -505,21 +507,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -536,9 +523,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,148 +536,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,7 +1016,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1074,7 +1063,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1102,20 +1091,12 @@
     <row r="10" spans="1:1">
       <c r="A10" s="3"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>25</v>
@@ -1126,7 +1107,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>25</v>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13040"/>
+    <workbookView windowWidth="30240" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>e-code</t>
   </si>
@@ -41,17 +41,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>PNVT-NYBP6W-TRBE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1E1E1E"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>BMTX-RJV9BU-4RBX</t>
     </r>
   </si>
@@ -62,9 +51,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,8 +90,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -116,46 +128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,37 +146,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,22 +219,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -246,31 +235,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,145 +331,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +436,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,21 +460,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -506,28 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,112 +525,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -650,28 +639,28 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,7 +1005,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1063,7 +1052,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1094,20 +1083,12 @@
     <row r="15" spans="1:1">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>25</v>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370"/>
+    <workbookView windowWidth="30240" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>e-code</t>
   </si>
@@ -28,12 +28,6 @@
     <t>总数 美元</t>
   </si>
   <si>
-    <t>FK22-MQKCHG-39BE</t>
-  </si>
-  <si>
-    <t>待出售</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -43,6 +37,9 @@
       </rPr>
       <t>SQM9-UY2MVU-6YB5</t>
     </r>
+  </si>
+  <si>
+    <t>出售中</t>
   </si>
   <si>
     <r>
@@ -55,27 +52,16 @@
       <t>78TD-9JCWQZ-EWBT</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1E1E1E"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BMTX-RJV9BU-4RBX</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -105,15 +91,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,9 +129,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,16 +146,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,63 +176,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,14 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +431,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,24 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,6 +475,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +520,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -547,152 +533,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,9 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -711,54 +694,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1030,19 +1013,19 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14166666666667" style="1"/>
-    <col min="4" max="4" width="10.075" style="1"/>
-    <col min="5" max="5" width="9.14166666666667" style="1"/>
-    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.0714285714286" style="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1066,18 +1049,12 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1090,50 +1067,48 @@
     <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" ht="18" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18" spans="1:2">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" ht="18" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" ht="18" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" ht="18" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" ht="18" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="15" ht="18" spans="1:1">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" ht="18" spans="1:1">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" ht="18" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13060"/>
+    <workbookView windowWidth="25200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>e-code</t>
   </si>
@@ -41,6 +41,28 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>SQM9-UY2MVU-6YB5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1E1E1E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>78TD-9JCWQZ-EWBT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1E1E1E"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>BMTX-RJV9BU-4RBX</t>
     </r>
   </si>
@@ -50,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,13 +99,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,12 +106,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -105,11 +173,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,102 +189,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -229,12 +251,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -247,169 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,20 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,18 +479,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,21 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -520,157 +522,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +701,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -686,54 +711,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1005,19 +1030,19 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="10.0714285714286" style="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="1"/>
-    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14166666666667" style="1"/>
+    <col min="4" max="4" width="10.075" style="1"/>
+    <col min="5" max="5" width="9.14166666666667" style="1"/>
+    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1052,7 +1077,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1065,30 +1090,43 @@
     <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+    <row r="5" ht="18" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" ht="18" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" ht="18" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" ht="18" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="15" ht="18" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" ht="18" spans="1:1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" ht="18" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>25</v>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13040"/>
+    <workbookView windowWidth="28000" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>e-code</t>
   </si>
@@ -35,22 +35,11 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>SQM9-UY2MVU-6YB5</t>
+      <t>78TD-9JCWQZ-EWBT</t>
     </r>
   </si>
   <si>
     <t>出售中</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1E1E1E"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>78TD-9JCWQZ-EWBT</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -58,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,6 +80,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -99,36 +117,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,17 +148,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,66 +216,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,181 +232,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,24 +417,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,6 +431,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,24 +476,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +502,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -533,148 +522,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1002,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1050,11 +1039,9 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1067,20 +1054,12 @@
     <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13160"/>
+    <workbookView windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>e-code</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>总数 美元</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF8064A2"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VVDG-2RHNW6-RXBG</t>
+    </r>
   </si>
   <si>
     <r>
@@ -45,24 +57,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF8064A2"/>
+      <name val="Trebuchet MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -73,100 +92,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -174,29 +118,15 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +134,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,8 +142,97 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,19 +245,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,163 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +450,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,17 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,8 +528,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -522,215 +541,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1002,19 +1024,19 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="10.0714285714286" style="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="1"/>
-    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14166666666667" style="1"/>
+    <col min="4" max="4" width="10.075" style="1"/>
+    <col min="5" max="5" width="9.14166666666667" style="1"/>
+    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1038,10 +1060,15 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
@@ -1049,45 +1076,45 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" ht="18" spans="1:1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" ht="18" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" ht="18" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" ht="18" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" ht="18" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="15" ht="18" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" ht="18" spans="1:1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" ht="18" spans="1:1">
+      <c r="A17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11610"/>
+    <workbookView windowWidth="30240" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>e-code</t>
   </si>
@@ -27,44 +27,22 @@
   <si>
     <t>总数 美元</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1E1E1E"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UQS8-U8QNQF-9BBA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1E1E1E"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>WKKC-4R7T55-E2BY</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +54,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -84,7 +62,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -92,14 +70,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -107,7 +85,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,7 +93,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +101,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +109,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,14 +117,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +132,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -162,7 +140,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -170,14 +148,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -185,42 +163,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -530,19 +508,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,60 +666,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1013,19 +988,19 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="28.575" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14166666666667" style="1"/>
-    <col min="4" max="4" width="10.075" style="1"/>
-    <col min="5" max="5" width="9.14166666666667" style="1"/>
-    <col min="6" max="6" width="2.08333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.225" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.725" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.0714285714286" style="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="2.08035714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.22321428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7232142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1048,10 +1023,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" ht="20.4" spans="1:11">
+      <c r="A2" s="2"/>
       <c r="B2" s="1">
         <v>25</v>
       </c>
@@ -1064,10 +1037,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" ht="20.4" spans="1:2">
+      <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>25</v>
       </c>
@@ -1075,29 +1046,29 @@
     <row r="4" spans="1:1">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" ht="18" spans="1:1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="7" ht="18" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" ht="18" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" ht="18" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" ht="18" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="15" ht="18" spans="1:1">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" ht="18" spans="1:1">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" ht="18" spans="1:1">
-      <c r="A17" s="4"/>
+    <row r="5" ht="20.4" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="7" ht="20.4" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" ht="20.4" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" ht="20.4" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" ht="20.4" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="15" ht="20.4" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" ht="20.4" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" ht="20.4" spans="1:1">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Amazon Card.xlsx
+++ b/Amazon Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13400"/>
+    <workbookView windowWidth="30240" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -988,7 +988,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1025,23 +1025,18 @@
     </row>
     <row r="2" ht="20.4" spans="1:11">
       <c r="A2" s="2"/>
-      <c r="B2" s="1">
-        <v>25</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="D2" s="1">
         <f>SUM(B:B)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <f>I:I</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.4" spans="1:2">
+    <row r="3" ht="20.4" spans="1:1">
       <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3"/>
